--- a/Dehalogenation_colorimetric_assays/Experiment2/Fluoride calibrations + preparation.xlsx
+++ b/Dehalogenation_colorimetric_assays/Experiment2/Fluoride calibrations + preparation.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC266A7-4975-BA44-BE42-624E4F90B653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0-100 micromolar F-" sheetId="1" r:id="rId1"/>
@@ -14,10 +15,21 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -154,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,14 +288,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -306,7 +317,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -324,7 +335,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -361,7 +372,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -387,7 +397,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -481,7 +491,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -834,7 +844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -872,7 +882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="527178480"/>
@@ -927,7 +937,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -953,7 +962,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -991,7 +1000,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="527178152"/>
@@ -1032,7 +1041,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1046,7 +1055,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1116,7 +1125,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1209,7 +1218,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1414,7 +1423,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1440,7 +1448,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1478,7 +1486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="483998296"/>
@@ -1533,7 +1541,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1559,7 +1566,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1597,7 +1604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="484006496"/>
@@ -1638,7 +1645,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2778,7 +2785,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2815,7 +2828,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2836,7 +2855,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Fluoride conc calculation"/>
@@ -2949,8 +2968,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Fluoride conc calculation"/>
       <sheetName val="P1.1"/>
@@ -3304,37 +3326,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="6" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3365,38 +3387,38 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>2.5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>10</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>25</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>50</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>75</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3427,76 +3449,76 @@
         <v>0.47299999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>0.4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>0.372</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>0.34</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>0.311</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>0.29299999999999998</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>0.27200000000000002</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" ref="C11:J11" si="0">C9/C10</f>
         <v>1.115</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>1.1368159203980099</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>1.228494623655914</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>1.2941176470588234</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>1.4630225080385852</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
         <v>1.6348122866894199</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>1.7536764705882351</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3527,76 +3549,76 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>0.41</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>0.41499999999999998</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>0.41599999999999998</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>0.373</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>0.28499999999999998</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>0.26400000000000001</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f t="shared" ref="C14:J14" si="1">C12/C13</f>
         <v>1.0536585365853659</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>1.0843373493975905</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="1"/>
         <v>1.1250000000000002</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>1.2117962466487937</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>1.3611111111111112</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>1.5824561403508774</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
         <v>1.731060606060606</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <f t="shared" si="1"/>
         <v>1.7258687258687258</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3627,154 +3649,154 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>0.39700000000000002</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>0.39</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>0.378</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>0.34100000000000003</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>0.31</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>0.25600000000000001</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <f t="shared" ref="C17" si="2">C15/C16</f>
         <v>1.0151133501259446</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <f t="shared" ref="D17" si="3">D15/D16</f>
         <v>1.0435897435897434</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f t="shared" ref="E17" si="4">E15/E16</f>
         <v>1.0582010582010581</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <f t="shared" ref="F17" si="5">F15/F16</f>
         <v>1.18475073313783</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <f t="shared" ref="G17" si="6">G15/G16</f>
         <v>1.3096774193548388</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <f t="shared" ref="H17" si="7">H15/H16</f>
         <v>1.6339622641509433</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" ref="I17" si="8">I15/I16</f>
         <v>1.7109375</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <f t="shared" ref="J17" si="9">J15/J16</f>
         <v>1.7790697674418605</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <f>AVERAGE(C11,C14,C17)</f>
         <v>1.0612572955704369</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <f t="shared" ref="D18:J18" si="10">AVERAGE(D11,D14,D17)</f>
         <v>1.0882476711284479</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <f t="shared" si="10"/>
         <v>1.137231893952324</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <f t="shared" si="10"/>
         <v>1.2302215422818155</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <f t="shared" si="10"/>
         <v>1.3779370128348452</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <f t="shared" si="10"/>
         <v>1.6170768970637468</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <f t="shared" si="10"/>
         <v>1.7318915255496137</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f t="shared" si="10"/>
         <v>1.7794239422146401</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <f>_xlfn.STDEV.S(C17,C14,C11)</f>
         <v>5.0375009273948813E-2</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <f t="shared" ref="D19:J19" si="11">_xlfn.STDEV.S(D17,D14,D11)</f>
         <v>4.6735938768796052E-2</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <f t="shared" si="11"/>
         <v>8.5803199422151463E-2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <f t="shared" si="11"/>
         <v>5.6964015874266534E-2</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <f t="shared" si="11"/>
         <v>7.8044937583863036E-2</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f t="shared" si="11"/>
         <v>2.9985466998326864E-2</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <f t="shared" si="11"/>
         <v>2.1381597745103498E-2</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <f t="shared" si="11"/>
         <v>5.3733179174582618E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="3">
         <v>0</v>
@@ -3802,39 +3824,39 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <f>C18</f>
         <v>1.0612572955704369</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <f t="shared" ref="D24:J24" si="12">D18</f>
         <v>1.0882476711284479</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24">
         <f t="shared" si="12"/>
         <v>1.137231893952324</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <f t="shared" si="12"/>
         <v>1.2302215422818155</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <f t="shared" si="12"/>
         <v>1.3779370128348452</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <f t="shared" si="12"/>
         <v>1.6170768970637468</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24">
         <f t="shared" si="12"/>
         <v>1.7318915255496137</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <f t="shared" si="12"/>
         <v>1.7794239422146401</v>
       </c>
@@ -3842,86 +3864,86 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <f>C24^2</f>
         <v>1.1262670474014778</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25">
         <f t="shared" ref="D25:J25" si="13">D24^2</f>
         <v>1.1842829937164905</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25">
         <f t="shared" si="13"/>
         <v>1.2932963806223901</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <f t="shared" si="13"/>
         <v>1.5134450430942488</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <f t="shared" si="13"/>
         <v>1.8987104113402162</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <f t="shared" si="13"/>
         <v>2.6149376910173157</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25">
         <f t="shared" si="13"/>
         <v>2.999448256270568</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f t="shared" si="13"/>
         <v>3.1663495661266907</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <f>C19</f>
         <v>5.0375009273948813E-2</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <f t="shared" ref="D26:I26" si="14">D19</f>
         <v>4.6735938768796052E-2</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f t="shared" si="14"/>
         <v>8.5803199422151463E-2</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <f t="shared" si="14"/>
         <v>5.6964015874266534E-2</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <f t="shared" si="14"/>
         <v>7.8044937583863036E-2</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <f t="shared" si="14"/>
         <v>2.9985466998326864E-2</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <f t="shared" si="14"/>
         <v>2.1381597745103498E-2</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <f>J19</f>
         <v>5.3733179174582618E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>15</v>
       </c>
@@ -3932,7 +3954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K31">
         <f t="array" ref="K31:M31">LINEST(C23:J23, C24:J25, TRUE, FALSE)</f>
         <v>168.36770366379687</v>
@@ -3944,17 +3966,17 @@
         <v>188.58237642742398</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K35" t="s">
         <v>20</v>
       </c>
@@ -3974,37 +3996,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -4029,32 +4051,32 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>8.3330000000000002</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>25</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>50</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>75</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4079,62 +4101,62 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>0.60899999999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>0.55600000000000005</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>0.45</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>0.35799999999999998</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>0.309</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f t="shared" ref="C11:H11" si="0">C9/C10</f>
         <v>0.94581280788177335</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>1.0395683453237408</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
         <v>1.2644444444444443</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>1.6089385474860334</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>1.8673139158576051</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>2.0179211469534049</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4159,124 +4181,124 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>0.60899999999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>0.46400000000000002</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>0.35699999999999998</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <f t="shared" ref="C14:H14" si="1">C12/C13</f>
         <v>0.96551724137931028</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>1.0195729537366547</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <f t="shared" si="1"/>
         <v>1.2435344827586206</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="1"/>
         <v>1.6078431372549018</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>1.9006622516556291</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="1"/>
         <v>2.0215827338129495</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <f>AVERAGE(C11,C14)</f>
         <v>0.95566502463054182</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <f t="shared" ref="D15:H15" si="2">AVERAGE(D11,D14)</f>
         <v>1.0295706495301977</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <f t="shared" si="2"/>
         <v>1.2539894636015325</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <f t="shared" si="2"/>
         <v>1.6083908423704676</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>1.8839880837566172</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>2.019751940383177</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <f>_xlfn.STDEV.S(C14,C11)</f>
         <v>1.3933138545547718E-2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <f t="shared" ref="D16:H16" si="3">_xlfn.STDEV.S(D14,D11)</f>
         <v>1.4138876983709006E-2</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f t="shared" si="3"/>
         <v>1.4785575702396837E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="3"/>
         <v>7.7457200261426163E-4</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <f t="shared" si="3"/>
         <v>2.3580834384068855E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="3"/>
         <v>2.5891328982875781E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="3">
         <v>0</v>
@@ -4298,31 +4320,31 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <f>C15</f>
         <v>0.95566502463054182</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21">
         <f t="shared" ref="D21:H21" si="4">D15</f>
         <v>1.0295706495301977</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21">
         <f t="shared" si="4"/>
         <v>1.2539894636015325</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21">
         <f t="shared" si="4"/>
         <v>1.6083908423704676</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <f t="shared" si="4"/>
         <v>1.8839880837566172</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f t="shared" si="4"/>
         <v>2.019751940383177</v>
       </c>
@@ -4330,70 +4352,70 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <f>C21^2</f>
         <v>0.91329563930209412</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22">
         <f t="shared" ref="D22:H22" si="5">D21^2</f>
         <v>1.0600157223740332</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22">
         <f t="shared" si="5"/>
         <v>1.5724895748236591</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <f t="shared" si="5"/>
         <v>2.5869211018211824</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <f t="shared" si="5"/>
         <v>3.5494110997369304</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" si="5"/>
         <v>4.0793979006816086</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <f>C16</f>
         <v>1.3933138545547718E-2</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <f t="shared" ref="D23:H23" si="6">D16</f>
         <v>1.4138876983709006E-2</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <f t="shared" si="6"/>
         <v>1.4785575702396837E-2</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <f t="shared" si="6"/>
         <v>7.7457200261426163E-4</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <f t="shared" si="6"/>
         <v>2.3580834384068855E-2</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="6"/>
         <v>2.5891328982875781E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
         <v>15</v>
       </c>
@@ -4404,7 +4426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K28">
         <f t="array" ref="K28:M28">LINEST(C20:H20, C21:H22, TRUE, FALSE)</f>
         <v>33.240483323108961</v>
@@ -4416,22 +4438,22 @@
         <v>-16.697175135833113</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K33" t="s">
         <v>25</v>
       </c>
